--- a/data/trans_orig/P34D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B2B1852-DB7D-4C15-8C18-7F91C0B88D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B915D233-F2F0-47CE-9474-3732454521F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4896265-F745-4555-B769-D3A1C64D53EF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C64923DB-A15B-4CF2-AE4C-DC61B8D7C705}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>48,69%</t>
   </si>
   <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>51,31%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>67,1%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>31,37%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>68,63%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>87,6%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>26,36%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>15,29%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,10 +365,10 @@
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -377,13 +377,13 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>2,27%</t>
@@ -392,16 +392,16 @@
     <t>96,59%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,1%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -413,55 +413,55 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>98,8%</t>
+    <t>98,84%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD13867A-0515-4A70-90A7-04BC24426F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7E3884-2D80-45DA-8EAE-52E4F1788EF1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,7 +1823,7 @@
         <v>993</v>
       </c>
       <c r="D20" s="7">
-        <v>673945</v>
+        <v>673946</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1874,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P34D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B915D233-F2F0-47CE-9474-3732454521F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{055E3082-C375-459C-B127-DE1CD74A7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C64923DB-A15B-4CF2-AE4C-DC61B8D7C705}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2AF1A8F-2C47-4F3A-BAEA-106B0CA162DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7E3884-2D80-45DA-8EAE-52E4F1788EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1B574-AC72-4972-9553-C0CE0882517B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{055E3082-C375-459C-B127-DE1CD74A7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBC9212-FB91-4E59-83E0-F59180C0D66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2AF1A8F-2C47-4F3A-BAEA-106B0CA162DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B3A2A5F-1F2B-4F56-B17E-C6106C40F7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>48,69%</t>
   </si>
   <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>51,31%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>67,1%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>31,37%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>68,63%</t>
   </si>
   <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>87,6%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>26,36%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>15,29%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,10 +365,10 @@
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -377,13 +377,13 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>2,27%</t>
@@ -392,16 +392,16 @@
     <t>96,59%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>99,1%</t>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -413,55 +413,55 @@
     <t>97,73%</t>
   </si>
   <si>
-    <t>98,84%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1B574-AC72-4972-9553-C0CE0882517B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64545FB4-720A-41EC-A41E-2AB346E4629C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,7 +1823,7 @@
         <v>993</v>
       </c>
       <c r="D20" s="7">
-        <v>673946</v>
+        <v>673945</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1874,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P34D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBC9212-FB91-4E59-83E0-F59180C0D66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57724E3D-8ABF-49B9-AC1B-9764712947B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B3A2A5F-1F2B-4F56-B17E-C6106C40F7E9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{36D46581-583C-4A3F-8966-6992CB3625DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Población según si realizan en una semana normal alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -65,403 +65,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64545FB4-720A-41EC-A41E-2AB346E4629C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2AC40C-D3A0-455C-AF42-FB9DBD1D4F87}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1054,7 @@
         <v>88</v>
       </c>
       <c r="D4" s="7">
-        <v>183906</v>
+        <v>192143</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1069,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>57164</v>
+        <v>50933</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1084,7 @@
         <v>121</v>
       </c>
       <c r="N4" s="7">
-        <v>241071</v>
+        <v>243076</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1105,7 @@
         <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>193773</v>
+        <v>207844</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1120,7 @@
         <v>174</v>
       </c>
       <c r="I5" s="7">
-        <v>297793</v>
+        <v>262267</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1135,7 @@
         <v>258</v>
       </c>
       <c r="N5" s="7">
-        <v>491565</v>
+        <v>470111</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1099,7 +1156,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1114,7 +1171,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1129,7 +1186,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1209,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="7">
-        <v>134379</v>
+        <v>133548</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,7 +1224,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>61830</v>
+        <v>56329</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1182,7 +1239,7 @@
         <v>140</v>
       </c>
       <c r="N7" s="7">
-        <v>196209</v>
+        <v>189877</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1203,7 +1260,7 @@
         <v>211</v>
       </c>
       <c r="D8" s="7">
-        <v>294017</v>
+        <v>289999</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1218,7 +1275,7 @@
         <v>411</v>
       </c>
       <c r="I8" s="7">
-        <v>436747</v>
+        <v>455175</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1233,7 +1290,7 @@
         <v>622</v>
       </c>
       <c r="N8" s="7">
-        <v>730764</v>
+        <v>745174</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1254,7 +1311,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1269,7 +1326,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1341,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1364,7 @@
         <v>135</v>
       </c>
       <c r="D10" s="7">
-        <v>146866</v>
+        <v>140108</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1322,7 +1379,7 @@
         <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>58987</v>
+        <v>54924</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1337,7 +1394,7 @@
         <v>215</v>
       </c>
       <c r="N10" s="7">
-        <v>205853</v>
+        <v>195031</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1358,7 +1415,7 @@
         <v>411</v>
       </c>
       <c r="D11" s="7">
-        <v>410386</v>
+        <v>396230</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1373,7 +1430,7 @@
         <v>766</v>
       </c>
       <c r="I11" s="7">
-        <v>524489</v>
+        <v>487544</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1388,7 +1445,7 @@
         <v>1177</v>
       </c>
       <c r="N11" s="7">
-        <v>934874</v>
+        <v>883775</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1409,7 +1466,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1481,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1496,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1462,7 +1519,7 @@
         <v>109</v>
       </c>
       <c r="D13" s="7">
-        <v>110690</v>
+        <v>105434</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1477,7 +1534,7 @@
         <v>69</v>
       </c>
       <c r="I13" s="7">
-        <v>49264</v>
+        <v>44446</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1492,7 +1549,7 @@
         <v>178</v>
       </c>
       <c r="N13" s="7">
-        <v>159954</v>
+        <v>149880</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1513,7 +1570,7 @@
         <v>556</v>
       </c>
       <c r="D14" s="7">
-        <v>613300</v>
+        <v>782352</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1528,7 +1585,7 @@
         <v>1071</v>
       </c>
       <c r="I14" s="7">
-        <v>697590</v>
+        <v>668052</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1543,7 +1600,7 @@
         <v>1627</v>
       </c>
       <c r="N14" s="7">
-        <v>1310890</v>
+        <v>1450405</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1564,7 +1621,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1579,7 +1636,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1594,7 +1651,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1617,7 +1674,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>45540</v>
+        <v>42056</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1632,7 +1689,7 @@
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>18651</v>
+        <v>17239</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1647,7 +1704,7 @@
         <v>84</v>
       </c>
       <c r="N16" s="7">
-        <v>64190</v>
+        <v>59295</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1668,7 +1725,7 @@
         <v>610</v>
       </c>
       <c r="D17" s="7">
-        <v>554617</v>
+        <v>519178</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1683,7 +1740,7 @@
         <v>970</v>
       </c>
       <c r="I17" s="7">
-        <v>575650</v>
+        <v>528327</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1698,7 +1755,7 @@
         <v>1580</v>
       </c>
       <c r="N17" s="7">
-        <v>1130268</v>
+        <v>1047504</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1719,7 +1776,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1734,7 +1791,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1806,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1194458</v>
+        <v>1106799</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>23809</v>
+        <v>15762</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1781,37 +1838,37 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="7">
+        <v>9</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3964</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5263</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>34</v>
+      </c>
+      <c r="N19" s="7">
+        <v>19726</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>47</v>
-      </c>
-      <c r="N19" s="7">
-        <v>29072</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,49 +1877,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>993</v>
+        <v>545</v>
       </c>
       <c r="D20" s="7">
-        <v>673945</v>
+        <v>352403</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>818</v>
+      </c>
+      <c r="I20" s="7">
+        <v>604404</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>1696</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1021374</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1363</v>
+      </c>
+      <c r="N20" s="7">
+        <v>956807</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>2689</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1695320</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1918,34 +1975,34 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>645189</v>
+        <v>6329</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1005</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H22" s="7">
-        <v>274</v>
-      </c>
-      <c r="I22" s="7">
-        <v>251160</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>129</v>
@@ -1954,10 +2011,10 @@
         <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>785</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>896349</v>
+        <v>7334</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>131</v>
@@ -1975,10 +2032,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2865</v>
+        <v>448</v>
       </c>
       <c r="D23" s="7">
-        <v>2740039</v>
+        <v>276430</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>134</v>
@@ -1990,34 +2047,34 @@
         <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>5088</v>
+        <v>878</v>
       </c>
       <c r="I23" s="7">
-        <v>3553642</v>
+        <v>424826</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>7953</v>
+        <v>1326</v>
       </c>
       <c r="N23" s="7">
-        <v>6293681</v>
+        <v>701256</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,63 +2083,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>511</v>
+      </c>
+      <c r="D25" s="7">
+        <v>635380</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>274</v>
+      </c>
+      <c r="I25" s="7">
+        <v>228839</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>785</v>
+      </c>
+      <c r="N25" s="7">
+        <v>864219</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2865</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2824437</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5088</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3430596</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7953</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6255033</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5362</v>
       </c>
-      <c r="I24" s="7">
-        <v>3804802</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3659435</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8738</v>
       </c>
-      <c r="N24" s="7">
-        <v>7190030</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7119252</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
